--- a/gardenContent/gardenContent.xlsx
+++ b/gardenContent/gardenContent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\Documents\GitHub\COMP523EdibleCampus\gardenContent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579B970D-C864-4D78-9D15-4549D1D435B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8ED310-86B7-4D90-829E-F84808FAC7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-187" windowWidth="19360" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Garden" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="26">
   <si>
     <t>plantName</t>
   </si>
@@ -68,9 +68,6 @@
     <t>tomato_main</t>
   </si>
   <si>
-    <t>tomato_graham</t>
-  </si>
-  <si>
     <t>tomato_stacy</t>
   </si>
   <si>
@@ -99,6 +96,44 @@
   </si>
   <si>
     <t>Spinach_main</t>
+  </si>
+  <si>
+    <t>Rosemary</t>
+  </si>
+  <si>
+    <t>Cut off the top 2-3 inches of each sprig when the plant is in full bloom.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1594313016519-640ed47407ea?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=1887&amp;q=80</t>
+  </si>
+  <si>
+    <t>ROSEMARY ROASTED POTATOES 
+INGREDIENTS
+1.5 lbs. potatoes* ($2.99)
+1 Tbsp olive oil ($0.16)
+2 cloves garlic, minced ($0.16)
+1 tsp dried rosemary ($0.10)
+1/2 tsp salt ($0.02)
+freshly cracked pepper ($0.03)
+1 handful parsley, chopped (optional) ($0.12) Preheat the oven to 400ºF. Wash your potatoes well, then cut them into 3/4-inch cubes or pieces.
+Place the potatoes in a large bowl and add the olive oil, minced garlic, dried rosemary, salt, and some freshly cracked pepper (about 15 cranks of a pepper mill). Toss the potatoes until they are evenly coated in oil and spices.
+Spread the potatoes out over a baking sheet so that they are in a single layer. Transfer the potatoes to the oven and roast for 15 minutes, then stir and roast for an additional 15 minutes.
+After 30 minutes total roasting time, stir once again and if additional browning is desired, roast for an additional 5-10 minutes. Serve with a handful of fresh, chopped parsley sprinkled over top, if desired.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemon Rosemary Chicken 
+Ingredients 
+Chicken: You’ll need 1 ½ pounds of boneless skinless chicken breast. For me, that equals about 3 large breasts, but how many you need will depend on their size. Don’t worry if your chicken is extra large! We’ll be slicing it into cutlets. 
+Seasoning: Kosher salt, black pepper, and fresh rosemary create an amazing balance of flavors that are refreshing and savory. If needed, you could substitute 2 teaspoons of dried rosemary instead. 
+Extra virgin olive oil: This helps the seasonings stick to the chicken and keeps them moist while adding a boost of healthy fats. 
+Lemons: Say goodbye to bland chicken! Not only does the lemon juice help flavor the poultry, but its acidity also acts as a tenderizer, making this dish vibrant and juicy. 
+Chicken broth: Used to infuse moisture.
+Garlic: There’s nothing like fresh garlic rubbed onto baked chicken! 
+Yellow onion: 1 medium yellow onion is all you’ll need. You could also use sweet onions or white onions. I would stay away from red onions, though. They will turn your chicken gray.
+Make chicken cutlets. Slice your chicken breasts in half to create thin cutlets for quick, easy baking. Woohoo! raw chicken breasts on a cutting board with a knife.
+Season the chicken. Use paper towels to pat the chicken dry, and season both sides generously with salt and pepper. Then, place them in a 9x13 baking dish, and toss them with the olive oil marinade. Place the sliced onions on top, and mix the ingredients again, making sure everything is well coated. raw chicken breasts in a baking dish with olive oil, lemon juice, chicken broth, rosemary and minced garlic.
+Bake. Use a large piece of foil, and use it to cover the chicken. Just make sure it isn’t actually touching the poultry. Then, bake it on the middle rack of your oven for 10 minutes before removing the foil and continuing to bake. Remove the chicken from the oven once it reaches an internal temperature of 160°F.
+Rest the chicken. Once you have removed the chicken from the oven, cover it again, and let it rest until the internal temperature has risen to 165°F. This allows for the juices to redistribute, creating a truly drool-worthy dish! </t>
   </si>
 </sst>
 </file>
@@ -143,9 +178,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -427,22 +465,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="39.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,29 +497,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -493,10 +531,46 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{BFC0B66C-FE68-4F72-87AF-82EB78BFFC8E}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{42D26DAD-8D43-4C09-80F4-A5ED207D79ED}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{BFC0B66C-FE68-4F72-87AF-82EB78BFFC8E}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{42D26DAD-8D43-4C09-80F4-A5ED207D79ED}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{0C2C5254-52FA-40C3-99BF-B14264DE2666}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{3B10480F-009C-47CE-A769-1D3699892258}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -510,12 +584,12 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -562,12 +636,19 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" customWidth="1"/>
+    <col min="5" max="5" width="56.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,21 +665,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -606,6 +687,7 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{CE243813-BA77-43B0-B30F-D492C777793E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -617,9 +699,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,9 +718,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -669,9 +751,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,9 +770,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -721,9 +803,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -740,9 +822,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -773,9 +855,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -792,9 +874,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -825,9 +907,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -844,9 +926,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -877,16 +959,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="48.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -903,12 +985,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -920,12 +1002,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>

--- a/gardenContent/gardenContent.xlsx
+++ b/gardenContent/gardenContent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\Documents\GitHub\COMP523EdibleCampus\gardenContent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8ED310-86B7-4D90-829E-F84808FAC7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C234DD8-0F32-4E29-BFDE-C0F330F9E8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="30">
   <si>
     <t>plantName</t>
   </si>
@@ -134,6 +134,40 @@
 Season the chicken. Use paper towels to pat the chicken dry, and season both sides generously with salt and pepper. Then, place them in a 9x13 baking dish, and toss them with the olive oil marinade. Place the sliced onions on top, and mix the ingredients again, making sure everything is well coated. raw chicken breasts in a baking dish with olive oil, lemon juice, chicken broth, rosemary and minced garlic.
 Bake. Use a large piece of foil, and use it to cover the chicken. Just make sure it isn’t actually touching the poultry. Then, bake it on the middle rack of your oven for 10 minutes before removing the foil and continuing to bake. Remove the chicken from the oven once it reaches an internal temperature of 160°F.
 Rest the chicken. Once you have removed the chicken from the oven, cover it again, and let it rest until the internal temperature has risen to 165°F. This allows for the juices to redistribute, creating a truly drool-worthy dish! </t>
+  </si>
+  <si>
+    <t>Lavender</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1532528339143-a332585c32a2?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=987&amp;q=80</t>
+  </si>
+  <si>
+    <t>Lavender Shortbread Cookies
+Ingredients
+½ cups butter, softened
+⅔ cup white sugar
+¼ cup sifted confectioners' sugar
+2 tablespoons finely chopped fresh lavender
+1 tablespoon chopped fresh mint leaves
+1 teaspoon grated lemon zest
+2 ½ cups all-purpose flour
+½ cup cornstarch
+¼ teaspoon salt
+Directions
+In a medium bowl, cream together the butter, white sugar and confectioners' sugar until light and fluffy. Mix in the lavender, mint and lemon zest. Combine the flour, cornstarch and salt; mix into the batter until well blended. Divide dough into two balls, wrap in plastic wrap and flatten to about 1inch thick. Refrigerate until firm, about 1hour.
+Preheat the oven to 325 degrees F (165 degrees C). On a lightly floured surface, roll the dough out to 1/4 inch thickness. Cut into shapes with cookie cutters. Cookie stamps will work well on these too. Place on cookie sheets.
+Bake for 18 to 20 minutes in the preheated oven, just until cookies begin to brown at the edges. Cool for a few minutes on the baking sheets then transfer to wire racks to cool completely.</t>
+  </si>
+  <si>
+    <t>Lavender Lemonade
+Ingredients
+2 cups boiling water
+1 cup lavender flowers
+2 cups cold water
+1 cup lemon juice
+1 cup sugar
+Directions
+Place the lavender in a pitcher; pour the boiling water over the lavender; cover with plastic wrap and allow to steep 10 minutes; strain and discard the lavender from the water and return the water to the pitcher. Add the cold water, lemon juice, and sugar to the pitcher and stir until the sugar dissolves. Refrigerate until serving.</t>
   </si>
 </sst>
 </file>
@@ -181,7 +215,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -468,7 +502,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,8 +510,8 @@
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="93.42578125" customWidth="1"/>
+    <col min="5" max="5" width="66.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -533,19 +567,19 @@
     </row>
     <row r="4" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/gardenContent/gardenContent.xlsx
+++ b/gardenContent/gardenContent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\Documents\GitHub\COMP523EdibleCampus\gardenContent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hu/Documents/CarolinaCloudApp/EdibleGardenUNC/gardenContent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C234DD8-0F32-4E29-BFDE-C0F330F9E8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9591BD-E9D0-2946-A4E3-25603678DE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14060" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Garden" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
   <si>
     <t>plantName</t>
   </si>
@@ -59,9 +59,6 @@
     <t>make a salad</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/G3GRJygP/Tomato-je.jpg</t>
-  </si>
-  <si>
     <t>tomato_lenoir</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>tomato_stacy</t>
   </si>
   <si>
-    <t>tomato_davis</t>
-  </si>
-  <si>
     <t>tomato_rams</t>
   </si>
   <si>
@@ -81,15 +75,6 @@
   </si>
   <si>
     <t>tomato_hardin</t>
-  </si>
-  <si>
-    <t>tomato_fetzer</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/sgQGcV2d/heirloom-tomatoes.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/pLFyjq0P/grow-fresh-spinach.jpg</t>
   </si>
   <si>
     <t>Spinach_fetzer</t>
@@ -139,7 +124,16 @@
     <t>Lavender</t>
   </si>
   <si>
-    <t>https://images.unsplash.com/photo-1532528339143-a332585c32a2?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=987&amp;q=80</t>
+    <t>https://i.postimg.cc/FFZZzW6x/babette-landmesser-Wl-z9lbwk-SI-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/HWbCzNZC/sigmund-hl-C6-Ow-RSQFs-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/FKqVYD3P/dan-gold-4-Li-UI-Y2m-I8-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/L5197vN7/elizabeth-spencer-Qw-J-Du-UMb-N4-unsplash.jpg</t>
   </si>
   <si>
     <t>Lavender Shortbread Cookies
@@ -159,6 +153,68 @@
 Bake for 18 to 20 minutes in the preheated oven, just until cookies begin to brown at the edges. Cool for a few minutes on the baking sheets then transfer to wire racks to cool completely.</t>
   </si>
   <si>
+    <t>Roasted Rosemary Onion Potatoes
+Ingredients
+1 small onion, finely chopped
+2 tablespoons vegetable oil
+2 tablespoons chopped fresh rosemary
+1 teaspoon chopped fresh thyme
+¼ teaspoon salt
+⅛ teaspoon ground black pepper
+1 ⅓ pounds potatoes, cut into 1-inch chunks
+Directions
+Preheat the oven to 450 degrees F (230 degrees C). Grease a rimmed baking sheet.
+Mix onion, oil, rosemary, thyme, salt, and pepper together in a large bowl. Add potatoes and toss to coat. Transfer mixture to the prepared pan and spread into a single layer.
+Bake in the preheated oven, turning occasionally, until potatoes are lightly browned and tender when pierced with a fork, 20 to 25 minutes.</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/mgrJngL9/victor-serban-wh-Trv7kv-GJY-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>Harvest (Mountain Mint and Catmint): Cut stems just before the plant blooms, typically when they are 4-6 inches tall.</t>
+  </si>
+  <si>
+    <t>Mint, Mountain Mint, and Catmint</t>
+  </si>
+  <si>
+    <t>Cucumber and Mint Salad Recipe
+Ingredients
+2 English (hothouse) cucumbers
+1 teaspoon salt
+1/4 cup chopped red onions
+2 tablespoons white wine vinegar
+2 tablespoons extra-virgin olive oil
+2 tablespoons vegetable oil
+2 1/2 teaspoons sugar
+1/4 teaspoon freshly ground black pepper
+1/4 cup chopped fresh mint
+Directions
+Cut the cucumbers in half lengthwise. Use a teaspoon to scrape out the seeds, then cut into thin slices. Toss the cucumbers with the salt in a colander. Let drain in the sink for at least 30 minutes, then tap the colander on the base of the sink to release any remaining water. Lay a clean dish towel flat on the counter, and then dump the cucumbers over top. Use the edges of the towel to blot the cucumbers dry.
+Meanwhile, soak the red onions in a small bowl of ice water for at least 10 minutes, then drain in a fine mesh strainer.
+In a medium bowl, combine the cucumbers, onions, white wine vinegar, olive oil, vegetable oil, sugar, pepper and mint. Taste and adjust seasoning if necessary. Cover and let stand in refrigerator for at least 20 minutes. Serve cold.</t>
+  </si>
+  <si>
+    <t>Super Easy Pea and Mint Soup
+Ingredients
+1 tablespoon extra-virgin olive oil, more for serving
+1 ounce (2 tablespoons) unsalted butter
+1 medium red onion, finely chopped
+1 clove garlic, minced
+5 cups (750 grams) frozen or shelled fresh peas, divided
+1 cup (75 grams) fresh mint leaves, coarsely chopped
+3 1/2 cups (1 liter) vegetable stock, divided
+1/8 teaspoon sea salt, or to taste
+1/8 teaspoon freshly ground pepper, or to taste
+1/2 cup (75 grams) freshly grated Parmesan cheese, optional
+Steps to Make It
+Add the oil and butter to a large saucepan over medium heat. When the butter melts, add the chopped onion and cook, stirring continuously, until the onion is soft but not brown, about 10 minutes.
+Add the garlic and cook, stirring constantly until fragrant, about 30 seconds.
+Add 3 3/4 cups peas, the mint leaves, and 2 3/4 cups of vegetable stock. Cover the saucepan with a tight-fitting lid and cook until the peas soften, about 10 minutes. 
+Transfer the soup to a food processor or blender and process until smooth.
+Return the puree to the pan, season with salt and pepper, and add the remaining 1 1/4 cups peas and 3/4 cup stock. Cook until the whole peas are cooked through, about 5 mintutes.
+If using grated Parmesan cheese, place a small mound in the center of a warmed soup bowl. Pour the warm soup around the cheese. Drizzle with a few drops of the extra-virgin olive oil. Serve immediately.</t>
+  </si>
+  <si>
     <t>Lavender Lemonade
 Ingredients
 2 cups boiling water
@@ -168,6 +224,115 @@
 1 cup sugar
 Directions
 Place the lavender in a pitcher; pour the boiling water over the lavender; cover with plastic wrap and allow to steep 10 minutes; strain and discard the lavender from the water and return the water to the pitcher. Add the cold water, lemon juice, and sugar to the pitcher and stir until the sugar dissolves. Refrigerate until serving.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemon Rosemary Chicken 
+Ingredients 
+Chicken: You’ll need 1 ½ pounds of boneless skinless chicken breast. For me, that equals about 3 large breasts, but how many you need will depend on their size. Don’t worry if your chicken is extra large! We’ll be slicing it into cutlets. 
+Seasoning: Kosher salt, black pepper, and fresh rosemary create an amazing balance of flavors that are refreshing and savory. If needed, you could substitute 2 teaspoons of dried rosemary instead. 
+Extra virgin olive oil: This helps the seasonings stick to the chicken and keeps them moist while adding a boost of healthy fats. 
+Lemons: Say goodbye to bland chicken! Not only does the lemon juice help flavor the poultry, but its acidity also acts as a tenderizer, making this dish vibrant and juicy. 
+Chicken broth: Used to infuse moisture.
+Garlic: There’s nothing like fresh garlic rubbed onto baked chicken! 
+Directions
+Yellow onion: 1 medium yellow onion is all you’ll need. You could also use sweet onions or white onions. I would stay away from red onions, though. They will turn your chicken gray.
+Make chicken cutlets. Slice your chicken breasts in half to create thin cutlets for quick, easy baking. Woohoo! raw chicken breasts on a cutting board with a knife.
+Season the chicken. Use paper towels to pat the chicken dry, and season both sides generously with salt and pepper. Then, place them in a 9x13 baking dish, and toss them with the olive oil marinade. Place the sliced onions on top, and mix the ingredients again, making sure everything is well coated. raw chicken breasts in a baking dish with olive oil, lemon juice, chicken broth, rosemary and minced garlic.
+Bake. Use a large piece of foil, and use it to cover the chicken. Just make sure it isn’t actually touching the poultry. Then, bake it on the middle rack of your oven for 10 minutes before removing the foil and continuing to bake. Remove the chicken from the oven once it reaches an internal temperature of 160°F.
+Rest the chicken. Once you have removed the chicken from the oven, cover it again, and let it rest until the internal temperature has risen to 165°F. This allows for the juices to redistribute, creating a truly drool-worthy dish! </t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Vv2vhLpW/kenan-kitchen-Bbq3-H7e-Gids-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>Lettuce</t>
+  </si>
+  <si>
+    <t>Cut the outer leaves when they are 4-6 inches tall.</t>
+  </si>
+  <si>
+    <t>Classic Restaurant Caesar Salad
+Ingredients
+Dressing:
+2 cloves garlic, finely chopped
+3 anchovy fillets
+½ lemon, juiced
+1 large egg yolk
+2 tablespoons red wine vinegar
+1 tablespoon Dijon mustard
+1 dash Worcestershire sauce
+¼ cup olive oil
+salt and ground black pepper to taste
+Salad:
+½ head romaine lettuce, chopped
+¼ cup grated Parmesan cheese
+2 tablespoons croutons
+Directions
+Make dressing: Mash garlic with anchovy fillets in a large salad bowl. Add lemon juice, egg yolk, red wine vinegar, Dijon mustard, and Worcestershire sauce; whisk until smooth and creamy. Gradually stream in olive oil while whisking constantly. Season with salt and black pepper.
+Make salad: Gently mix romaine lettuce and Parmesan cheese into dressing until thoroughly coated. Serve salad topped with croutons.</t>
+  </si>
+  <si>
+    <t>Greek Salad
+Ingredients
+1 head romaine lettuce- rinsed, dried and chopped
+1 cucumber, sliced
+2 large tomatoes, chopped
+1 (6 ounce) can pitted black olives
+1 green bell pepper, chopped
+1 red bell pepper, chopped
+1 red onion, thinly sliced
+1 cup crumbled feta cheese
+6 tablespoons olive oil
+1 lemon, juiced
+1 teaspoon dried oregano
+ground black pepper to taste
+Directions
+Combine romaine, cucumber, tomatoes, olives, bell peppers, and red onion in a large bowl; sprinkle with feta cheese.
+Whisk olive oil, lemon juice, oregano, and black pepper together in a small bowl. Pour dressing over salad, toss well to combine, and serve.</t>
+  </si>
+  <si>
+    <t>Pull the entire plant when the tops have fallen over and turned brown.</t>
+  </si>
+  <si>
+    <t>Rich and Simple French Onion Soup
+Ingredients
+½ cup unsalted butter
+2 tablespoons olive oil
+4 cups sliced onions
+5 cups beef broth
+2 tablespoons dry sherry
+1 teaspoon dried thyme
+1 pinch salt and pepper to taste
+4 slices French bread
+4 slices provolone cheese
+2 slices Swiss cheese, diced
+¼ cup grated Parmesan cheese
+Directions
+Gather all ingredients.
+Melt butter with olive oil in an 8-quart stock pot over medium heat. Add onions to butter and continually stir until tender and translucent. Do not brown the onions.
+Add beef broth, sherry, and thyme. Season with salt and pepper. Let simmer for 30 minutes.
+Meanwhile, preheat the oven's broiler.
+Ladle soup into oven-safe serving bowls and place one slice of bread on top of each (bread may be broken into pieces if you prefer). Layer each slice of bread with a slice of provolone, 1/2 slice diced Swiss and 1 tablespoon Parmesan cheese.
+Place bowls on a cookie sheet and broil in the preheated oven until cheese bubbles and browns slightly, 2 to 3 minutes.
+Serve hot and enjoy!</t>
+  </si>
+  <si>
+    <t>Caramelized Onions on the Grill
+Ingredients
+1 large Vidalia or sweet onion, peeled and cut into large wedges
+2 tablespoons softened butter
+1 teaspoon beef bouillon granules
+1 pinch garlic salt and pepper to taste
+Directions
+Preheat an outdoor grill for medium heat.
+Place the onion wedges on a sheet of heavy duty aluminum foil. Dot with butter, then sprinkle with bouillon, garlic salt, and pepper to taste. Fold the aluminum foil into a packet, leaving only a small hole at the top to allow steam to escape.
+Place packet on preheated grill, and cook until the onions have softened, and cooked to a deep, rich brown, 45 minutes to 1 hour depending on the temperature of the grill. Stir the onions after the first 30 minutes, or as needed to keep from burning.</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/HWtV4d65/thomas-martinsen-U4-Yd-DVli-Dl-A-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>Onion</t>
   </si>
 </sst>
 </file>
@@ -501,20 +666,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="93.42578125" customWidth="1"/>
-    <col min="5" max="5" width="66.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="93.5" customWidth="1"/>
+    <col min="5" max="5" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,63 +696,63 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -601,10 +766,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{BFC0B66C-FE68-4F72-87AF-82EB78BFFC8E}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{42D26DAD-8D43-4C09-80F4-A5ED207D79ED}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{0C2C5254-52FA-40C3-99BF-B14264DE2666}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{3B10480F-009C-47CE-A769-1D3699892258}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{BFC0B66C-FE68-4F72-87AF-82EB78BFFC8E}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{42D26DAD-8D43-4C09-80F4-A5ED207D79ED}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{0C2C5254-52FA-40C3-99BF-B14264DE2666}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{3B10480F-009C-47CE-A769-1D3699892258}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -612,18 +777,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E58B82-0BCC-4A76-87A0-AA63B4B6A4BE}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="47.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,26 +809,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{812088F1-CB38-49DD-92CF-0A89E8E6FB59}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{812088F1-CB38-49DD-92CF-0A89E8E6FB59}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{1FDCAF9F-7A7E-1146-8DED-F3ABF0CAAFD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -673,16 +860,16 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" customWidth="1"/>
-    <col min="5" max="5" width="56.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="56.5" customWidth="1"/>
+    <col min="5" max="5" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -699,21 +886,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -730,12 +917,12 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -752,12 +939,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -782,12 +969,19 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -804,21 +998,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -834,12 +1028,12 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -856,12 +1050,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -886,12 +1080,12 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -908,12 +1102,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -938,12 +1132,12 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -960,12 +1154,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -989,20 +1183,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA00F31-40E4-4EF3-AE2A-3CBC71618EFA}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" customWidth="1"/>
+    <col min="5" max="5" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1019,29 +1213,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>

--- a/gardenContent/gardenContent.xlsx
+++ b/gardenContent/gardenContent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hu/Documents/CarolinaCloudApp/EdibleGardenUNC/gardenContent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9591BD-E9D0-2946-A4E3-25603678DE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD53576-9277-F946-95DC-AE176C00829E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14060" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13980" tabRatio="777" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Garden" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
   <si>
     <t>plantName</t>
   </si>
@@ -62,9 +62,6 @@
     <t>tomato_lenoir</t>
   </si>
   <si>
-    <t>tomato_main</t>
-  </si>
-  <si>
     <t>tomato_stacy</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
   </si>
   <si>
     <t>Spinach_fetzer</t>
-  </si>
-  <si>
-    <t>Spinach_main</t>
   </si>
   <si>
     <t>Rosemary</t>
@@ -333,6 +327,51 @@
   </si>
   <si>
     <t>Onion</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/GtF3gQ83/phillip-larking-alnk961d-Nz8-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>Cilantro</t>
+  </si>
+  <si>
+    <t>Cut leaves from the top of the plant when they are 4-6 inches tall.</t>
+  </si>
+  <si>
+    <t>Easy Cilantro-Lime Rice
+Ingredients
+1 tablespoon olive oil
+1 cup basmati rice
+2 cloves garlic, minced
+1 ½ cups chicken broth
+2 tablespoons fresh lime juice
+1 teaspoon salt
+½ cup chopped cilantro
+¼ cup whole-kernel corn
+2 teaspoons green onions, chopped
+1 lime, zested
+Directions
+Heat olive oil in a saucepan over medium heat. Cook and stir rice and garlic in hot oil until fragrant, about 2 minutes. Stir chicken broth, lime juice, and salt into rice; bring to a boil, reduce heat to medium-low, cover the saucepan with a lid, and simmer until rice is tender and liquid is absorbed, about 15 minutes.
+Stir cilantro, corn, green onions, and lime zest into rice until well-mixed.</t>
+  </si>
+  <si>
+    <t>Cilantro Garlic Lime Sauteed Shrimp
+Ingredients
+1 ½ pounds shrimp, tails removed
+1 bunch fresh cilantro, chopped, or to taste, divided
+¼ cup olive oil
+½ yellow onion, chopped
+5 cloves garlic, chopped, or more to taste
+2 cups salsa
+1 red bell pepper, finely chopped
+¾ cup white wine
+1 small red chile pepper, pureed
+1 teaspoon lemon juice, or to taste
+1 teaspoon lime juice, or to taste
+Directions
+Toss shrimp and half the cilantro together in a bowl.
+Heat olive oil in a skillet over medium heat; saute onion until translucent, 1 to 2 minutes. Add garlic and saute until browned, 1 to 2 minutes.
+Stir salsa, red bell pepper, white wine, red chile pepper puree, lemon juice, and lime juice into onion mixture; bring to a boil. Reduce heat and simmer, 2 to 3 minutes. Add shrimp to salsa mixture; cook and stir until shrimp are cooked through, about 5 minutes. Garnish with remaining cilantro and add more lemon or lime juice to taste.</t>
   </si>
 </sst>
 </file>
@@ -664,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -698,78 +737,114 @@
     </row>
     <row r="2" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="365" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="395" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{BFC0B66C-FE68-4F72-87AF-82EB78BFFC8E}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{42D26DAD-8D43-4C09-80F4-A5ED207D79ED}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{0C2C5254-52FA-40C3-99BF-B14264DE2666}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{3B10480F-009C-47CE-A769-1D3699892258}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{0C2C5254-52FA-40C3-99BF-B14264DE2666}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{3B10480F-009C-47CE-A769-1D3699892258}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{DFB9C77B-0E43-418C-925E-D70B15770260}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{142E9A71-0BF2-4BFF-9471-003B562783B8}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{5C832106-29B3-D848-BA6F-D9EE4BC9EA7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -780,7 +855,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -811,19 +886,19 @@
     </row>
     <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -831,7 +906,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -888,19 +963,19 @@
     </row>
     <row r="2" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -941,10 +1016,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -969,7 +1044,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1000,19 +1075,19 @@
     </row>
     <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1052,10 +1127,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1104,10 +1179,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1156,10 +1231,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1183,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA00F31-40E4-4EF3-AE2A-3CBC71618EFA}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1215,27 +1290,27 @@
     </row>
     <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
